--- a/data_excel/447.xlsx
+++ b/data_excel/447.xlsx
@@ -117,11 +117,11 @@
     <t>。</t>
   </si>
   <si>
-    <t>pv</t>
+    <t>snv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+</t>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,14 +149,6 @@
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,7 +201,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -515,7 +507,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="B8:C8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
